--- a/biology/Médecine/Capitatum/Capitatum.xlsx
+++ b/biology/Médecine/Capitatum/Capitatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le capitatum (ou grand os en ancienne nomenclature) est le plus grand os du carpe situé au milieu de sa deuxième rangée.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le capitatum est constituée d'une tête arrondie en haut et d'un corps en bas, reliés par un col rétréci.
 Il présente six faces :
@@ -548,9 +562,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fractures du capitatum représente 1,3 % de toutes les fractures du poignet. Les fractures isolées du capitatum ne représentent que 0,3 % et sont souvent non déplacées. En effet, le capitatum est au centre de la région carpienne et est donc assez bien protégé. Les fractures de la tête surviennent en même temps que les fractures d'un autre os du carpe, le scaphoïde[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fractures du capitatum représente 1,3 % de toutes les fractures du poignet. Les fractures isolées du capitatum ne représentent que 0,3 % et sont souvent non déplacées. En effet, le capitatum est au centre de la région carpienne et est donc assez bien protégé. Les fractures de la tête surviennent en même temps que les fractures d'un autre os du carpe, le scaphoïde.
 </t>
         </is>
       </c>
